--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R210_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R210_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -825,10 +837,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -872,28 +884,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -918,28 +930,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1056,10 +1068,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1103,28 +1115,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1149,28 +1161,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1345,10 +1357,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1392,28 +1404,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1438,28 +1450,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1634,10 +1646,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1681,28 +1693,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1727,28 +1739,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2126,10 +2138,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2173,28 +2185,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2219,28 +2231,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2386,10 +2398,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="J78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2433,28 +2445,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2479,28 +2491,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2646,10 +2658,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="J87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2693,28 +2705,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2739,28 +2751,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2906,10 +2918,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2953,28 +2965,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2999,28 +3011,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3195,10 +3207,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="J106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3242,28 +3254,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3288,28 +3300,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3513,10 +3525,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="J117" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3560,28 +3572,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3606,28 +3618,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3744,10 +3756,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3791,28 +3803,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3837,28 +3849,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3975,10 +3987,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="J133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4022,28 +4034,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4068,28 +4080,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4235,10 +4247,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
+      <c r="J142" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K142" s="2" t="s">
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4282,28 +4294,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4328,28 +4340,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4524,10 +4536,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
+      <c r="J152" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="2" t="s">
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4571,28 +4583,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4617,28 +4629,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4755,10 +4767,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
+      <c r="J160" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K160" s="2" t="s">
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4802,28 +4814,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4848,28 +4860,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5015,10 +5027,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
+      <c r="J169" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K169" s="2" t="s">
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5062,28 +5074,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5108,28 +5120,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5333,10 +5345,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
+      <c r="J180" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K180" s="2" t="s">
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5380,28 +5392,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5426,28 +5438,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5506,10 +5518,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
+      <c r="J186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5553,28 +5565,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5599,28 +5611,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5737,10 +5749,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
+      <c r="J194" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K194" s="2" t="s">
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5784,28 +5796,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5830,28 +5842,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5939,10 +5951,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
+      <c r="J201" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K201" s="2" t="s">
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
